--- a/Our_Labs/Lab_5/excel.xlsx
+++ b/Our_Labs/Lab_5/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE517D8-D6D9-4F6F-A472-7269C985F890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6879C-BECE-4346-88F5-CE135DC1FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,12 +599,11 @@
         <v>0.23333333333333428</v>
       </c>
       <c r="G4" s="7">
-        <f>0.1/SQRT(3)</f>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="7">
         <f>SQRT(POWER(F4,2)+POWER(G4,2))</f>
-        <v>0.24037008503093354</v>
+        <v>0.25385910352879781</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -638,12 +637,11 @@
         <v>6.666666666666643E-2</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G8" si="1">0.1/SQRT(3)</f>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="7">
         <f>SQRT(POWER(F5,2)+POWER(G5,2))</f>
-        <v>8.8191710368819509E-2</v>
+        <v>0.12018504251546619</v>
       </c>
       <c r="I5" s="7">
         <f>E5-E4</f>
@@ -662,7 +660,7 @@
         <v>2.6467447605964763E-3</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" ref="M5:M25" si="2">1/(L5*L5)</f>
+        <f t="shared" ref="M5:M25" si="1">1/(L5*L5)</f>
         <v>142749.92078655804</v>
       </c>
     </row>
@@ -688,31 +686,30 @@
         <v>6.6666666666669983E-2</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H8" si="3">SQRT(POWER(F6,2)+POWER(G6,2))</f>
-        <v>8.8191710368822201E-2</v>
+        <f t="shared" ref="H6:H8" si="2">SQRT(POWER(F6,2)+POWER(G6,2))</f>
+        <v>0.12018504251546816</v>
       </c>
       <c r="I6" s="7">
         <f>E6-E5</f>
         <v>13.2</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6:J26" si="4">SQRT(POWER(F5,2)+POWER(F6,2))</f>
+        <f t="shared" ref="J6:J26" si="3">SQRT(POWER(F5,2)+POWER(F6,2))</f>
         <v>9.4280904158208514E-2</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6:K8" si="5">2*$A$2*I6/100</f>
+        <f t="shared" ref="K6:K8" si="4">2*$A$2*I6/100</f>
         <v>343.2</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" ref="L6" si="6">SQRT(POWER(1/$A$2*J6,2)+POWER(I6/($A$2*$A$2)*K6,2))</f>
+        <f t="shared" ref="L6" si="5">SQRT(POWER(1/$A$2*J6,2)+POWER(I6/($A$2*$A$2)*K6,2))</f>
         <v>2.6815962667418964E-3</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>139063.51910427967</v>
       </c>
     </row>
@@ -734,27 +731,26 @@
         <v>46.866666666666667</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7" si="7">MAX(ABS(E7-B7),ABS(E7-C7),ABS(E7-D7))</f>
+        <f t="shared" ref="F7" si="6">MAX(ABS(E7-B7),ABS(E7-C7),ABS(E7-D7))</f>
         <v>0.13333333333333286</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="7">
         <f>SQRT(POWER(F7,2)+POWER(G7,2))</f>
-        <v>0.14529663145135535</v>
+        <v>0.1666666666666663</v>
       </c>
       <c r="I7" s="7">
         <f>E7-E6</f>
         <v>13.333333333333336</v>
       </c>
       <c r="J7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.14907119849998704</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="4"/>
-        <v>0.14907119849998704</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="5"/>
         <v>346.66666666666674</v>
       </c>
       <c r="L7" s="8">
@@ -762,7 +758,7 @@
         <v>2.7374455257463165E-3</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>133447.06570481561</v>
       </c>
     </row>
@@ -788,23 +784,22 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="3"/>
-        <v>0.11547005383792638</v>
+        <f t="shared" si="2"/>
+        <v>0.14142135623731053</v>
       </c>
       <c r="I8" s="7">
         <f>E8-E7</f>
         <v>13.033333333333331</v>
       </c>
       <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666713</v>
+      </c>
+      <c r="K8" s="7">
         <f t="shared" si="4"/>
-        <v>0.16666666666666713</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="5"/>
         <v>338.86666666666662</v>
       </c>
       <c r="L8" s="8">
@@ -812,7 +807,7 @@
         <v>2.616493266001415E-3</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>146069.90853083896</v>
       </c>
     </row>
@@ -905,12 +900,11 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="G13" s="7">
-        <f>0.1/SQRT(3)</f>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="7">
         <f>SQRT(POWER(F13,2)+POWER(G13,2))</f>
-        <v>0.11547005383792484</v>
+        <v>0.14142135623730925</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -932,27 +926,26 @@
         <v>17.7</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E17" si="8">AVERAGE(B14:D14)</f>
+        <f t="shared" ref="E14:E17" si="7">AVERAGE(B14:D14)</f>
         <v>17.633333333333336</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F17" si="9">MAX(ABS(E14-B14),ABS(E14-C14),ABS(E14-D14))</f>
+        <f t="shared" ref="F14:F17" si="8">MAX(ABS(E14-B14),ABS(E14-C14),ABS(E14-D14))</f>
         <v>0.13333333333333641</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:G17" si="10">0.1/SQRT(3)</f>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="7">
         <f>SQRT(POWER(F14,2)+POWER(G14,2))</f>
-        <v>0.14529663145135863</v>
+        <v>0.16666666666666913</v>
       </c>
       <c r="I14" s="7">
         <f>E14-E13</f>
         <v>11.133333333333336</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666893</v>
       </c>
       <c r="K14" s="7">
@@ -964,7 +957,7 @@
         <v>1.6564123152899377E-3</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>364471.10076568549</v>
       </c>
     </row>
@@ -982,39 +975,38 @@
         <v>29.1</v>
       </c>
       <c r="E15" s="4">
+        <f t="shared" si="7"/>
+        <v>29.033333333333331</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="8"/>
-        <v>29.033333333333331</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="9"/>
         <v>0.33333333333333215</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="10"/>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ref="H15:H16" si="11">SQRT(POWER(F15,2)+POWER(G15,2))</f>
-        <v>0.33829638550307284</v>
+        <f t="shared" ref="H15:H16" si="9">SQRT(POWER(F15,2)+POWER(G15,2))</f>
+        <v>0.34801021696368389</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" ref="I15:I25" si="12">E15-E14</f>
+        <f t="shared" ref="I15:I25" si="10">E15-E14</f>
         <v>11.399999999999995</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35901098714230034</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" ref="K15:K17" si="13">2*$A$11*I15/100</f>
+        <f t="shared" ref="K15:K17" si="11">2*$A$11*I15/100</f>
         <v>341.99999999999983</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" ref="L15:L16" si="14">SQRT(POWER(1/$A$11*J15,2)+POWER(I15/($A$11*$A$11)*K15,2))</f>
+        <f t="shared" ref="L15:L16" si="12">SQRT(POWER(1/$A$11*J15,2)+POWER(I15/($A$11*$A$11)*K15,2))</f>
         <v>1.7492512085510411E-3</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>326810.22407036042</v>
       </c>
     </row>
@@ -1032,39 +1024,38 @@
         <v>40.700000000000003</v>
       </c>
       <c r="E16" s="4">
+        <f t="shared" si="7"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="8"/>
-        <v>40.666666666666664</v>
-      </c>
-      <c r="F16" s="4">
+        <v>0.26666666666666572</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="9"/>
-        <v>0.26666666666666572</v>
-      </c>
-      <c r="G16" s="7">
+        <v>0.28480012484391681</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="10"/>
-        <v>5.7735026918962581E-2</v>
-      </c>
-      <c r="H16" s="7">
+        <v>11.633333333333333</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="3"/>
+        <v>0.42687494916218843</v>
+      </c>
+      <c r="K16" s="7">
         <f t="shared" si="11"/>
-        <v>0.27284509239574745</v>
-      </c>
-      <c r="I16" s="7">
+        <v>349</v>
+      </c>
+      <c r="L16" s="8">
         <f t="shared" si="12"/>
-        <v>11.633333333333333</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="4"/>
-        <v>0.42687494916218843</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="13"/>
-        <v>349</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="14"/>
         <v>1.8267624018047505E-3</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>299664.89619551023</v>
       </c>
     </row>
@@ -1082,31 +1073,30 @@
         <v>52.2</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="7"/>
+        <v>52.20000000000001</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="8"/>
-        <v>52.20000000000001</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="9"/>
         <v>0.10000000000000853</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="10"/>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="7">
         <f>SQRT(POWER(F17,2)+POWER(G17,2))</f>
-        <v>0.11547005383793255</v>
+        <v>0.14142135623731555</v>
       </c>
       <c r="I17" s="7">
         <f>E17-E16</f>
         <v>11.533333333333346</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28480012484391981</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>346.00000000000034</v>
       </c>
       <c r="L17" s="8">
@@ -1114,7 +1104,7 @@
         <v>1.7837043592960566E-3</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>314307.14415010961</v>
       </c>
     </row>
@@ -1207,12 +1197,11 @@
         <v>0.56666666666666643</v>
       </c>
       <c r="G22" s="7">
-        <f>0.1/SQRT(3)</f>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="7">
         <f>SQRT(POWER(F22,2)+POWER(G22,2))</f>
-        <v>0.56960024968783518</v>
+        <v>0.57542255005440202</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1234,27 +1223,26 @@
         <v>24.2</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" ref="E23:E26" si="15">AVERAGE(B23:D23)</f>
+        <f t="shared" ref="E23:E26" si="13">AVERAGE(B23:D23)</f>
         <v>24.099999999999998</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ref="F23:F26" si="16">MAX(ABS(E23-B23),ABS(E23-C23),ABS(E23-D23))</f>
+        <f t="shared" ref="F23:F26" si="14">MAX(ABS(E23-B23),ABS(E23-C23),ABS(E23-D23))</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23:G26" si="17">0.1/SQRT(3)</f>
-        <v>5.7735026918962581E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H26" si="18">SQRT(POWER(F23,2)+POWER(G23,2))</f>
-        <v>0.11547005383792638</v>
+        <f t="shared" ref="H23:H26" si="15">SQRT(POWER(F23,2)+POWER(G23,2))</f>
+        <v>0.14142135623731053</v>
       </c>
       <c r="I23" s="7">
         <f>E23-E22</f>
         <v>9.3666666666666636</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.57542255005440235</v>
       </c>
       <c r="K23" s="7">
@@ -1266,7 +1254,7 @@
         <v>1.0259058339908342E-3</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>950134.30984054995</v>
       </c>
     </row>
@@ -1284,31 +1272,30 @@
         <v>33.9</v>
       </c>
       <c r="E24" s="4">
+        <f t="shared" si="13"/>
+        <v>34.033333333333331</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.1666666666666714</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" si="15"/>
-        <v>34.033333333333331</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="16"/>
-        <v>0.1666666666666714</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="17"/>
-        <v>5.7735026918962581E-2</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" si="18"/>
-        <v>0.17638342073764385</v>
+        <v>0.19436506316151408</v>
       </c>
       <c r="I24" s="7">
         <f>E24-E23</f>
         <v>9.9333333333333336</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.19436506316151481</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" ref="K24:K26" si="19">2*$A$20*I24/100</f>
+        <f t="shared" ref="K24:K26" si="16">2*$A$20*I24/100</f>
         <v>357.6</v>
       </c>
       <c r="L24" s="8">
@@ -1316,7 +1303,7 @@
         <v>1.1016504236122937E-3</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>823971.87584883138</v>
       </c>
     </row>
@@ -1334,31 +1321,30 @@
         <v>43.6</v>
       </c>
       <c r="E25" s="4">
+        <f t="shared" si="13"/>
+        <v>43.566666666666663</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="14"/>
+        <v>6.6666666666662877E-2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" si="15"/>
-        <v>43.566666666666663</v>
-      </c>
-      <c r="F25" s="4">
+        <v>0.12018504251546422</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="10"/>
+        <v>9.5333333333333314</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.17950549357115314</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="16"/>
-        <v>6.6666666666662877E-2</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="17"/>
-        <v>5.7735026918962581E-2</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="18"/>
-        <v>8.8191710368816817E-2</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="12"/>
-        <v>9.5333333333333314</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="4"/>
-        <v>0.17950549357115314</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="19"/>
         <v>343.19999999999993</v>
       </c>
       <c r="L25" s="8">
@@ -1366,7 +1352,7 @@
         <v>1.0147393874224682E-3</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>971160.39716263034</v>
       </c>
     </row>
@@ -1384,31 +1370,30 @@
         <v>53.1</v>
       </c>
       <c r="E26" s="4">
+        <f t="shared" si="13"/>
+        <v>53.166666666666664</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="14"/>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="7">
         <f t="shared" si="15"/>
-        <v>53.166666666666664</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="16"/>
-        <v>0.13333333333333286</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="17"/>
-        <v>5.7735026918962581E-2</v>
-      </c>
-      <c r="H26" s="7">
-        <f t="shared" si="18"/>
-        <v>0.14529663145135535</v>
+        <v>0.1666666666666663</v>
       </c>
       <c r="I26" s="7">
         <f>E26-E25</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.14907119849998388</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>345.60000000000008</v>
       </c>
       <c r="L26" s="8">

--- a/Our_Labs/Lab_5/excel.xlsx
+++ b/Our_Labs/Lab_5/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6879C-BECE-4346-88F5-CE135DC1FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3891A5B-C618-4064-B32F-A22DEF679381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Our_Labs/Lab_5/excel.xlsx
+++ b/Our_Labs/Lab_5/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3891A5B-C618-4064-B32F-A22DEF679381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB6A76-169D-4A05-B691-8EA3A44E63D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>f, HZ</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Temperatura = 22.8 *C</t>
+  </si>
+  <si>
+    <t>u(Sw)</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,11 +208,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,6 +231,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -499,27 +512,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -530,12 +543,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>1</v>
@@ -576,8 +589,11 @@
       <c r="N3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -612,10 +628,14 @@
       <c r="M4" s="5"/>
       <c r="N4">
         <f>((K5*M5)+(K6*M6)+(K7*M7)+(K8*M8))/(M5+M6+M7+M8)</f>
-        <v>342.23532235273933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>342.43938738933844</v>
+      </c>
+      <c r="O4">
+        <f>((M5*L5) +(M6*L6)+(L7*M7)+(L8*M8))/(SUM(M5,M6,M7,M8))</f>
+        <v>37.603341020474318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -648,23 +668,23 @@
         <v>13.099999999999998</v>
       </c>
       <c r="J5" s="7">
-        <f>SQRT(POWER(F4,2)+POWER(F5,2))</f>
-        <v>0.24267032964268478</v>
+        <f>SQRT(H4+H5)</f>
+        <v>0.61159148624246229</v>
       </c>
       <c r="K5" s="7">
         <f>2*$A$2*I5/100</f>
         <v>340.59999999999991</v>
       </c>
       <c r="L5" s="8">
-        <f>SQRT(POWER(1/$A$2*J5,2)+POWER(I5/($A$2*$A$2)*K5,2))</f>
-        <v>2.6467447605964763E-3</v>
+        <f>SQRT((2*A2)*J5)</f>
+        <v>39.876532750859894</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" ref="M5:M25" si="1">1/(L5*L5)</f>
-        <v>142749.92078655804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f>1/(L5*L5)</f>
+        <v>6.2887628959391016E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -689,7 +709,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H8" si="2">SQRT(POWER(F6,2)+POWER(G6,2))</f>
+        <f t="shared" ref="H6:H8" si="1">SQRT(POWER(F6,2)+POWER(G6,2))</f>
         <v>0.12018504251546816</v>
       </c>
       <c r="I6" s="7">
@@ -697,23 +717,23 @@
         <v>13.2</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6:J26" si="3">SQRT(POWER(F5,2)+POWER(F6,2))</f>
-        <v>9.4280904158208514E-2</v>
+        <f>SQRT(H5+H6)</f>
+        <v>0.49027551951013659</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6:K8" si="4">2*$A$2*I6/100</f>
+        <f t="shared" ref="K6:K8" si="2">2*$A$2*I6/100</f>
         <v>343.2</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" ref="L6" si="5">SQRT(POWER(1/$A$2*J6,2)+POWER(I6/($A$2*$A$2)*K6,2))</f>
-        <v>2.6815962667418964E-3</v>
+        <f>SQRT((2*A2)*J6)</f>
+        <v>35.703170037496044</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="1"/>
-        <v>139063.51910427967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M5:M25" si="3">1/(L6*L6)</f>
+        <v>7.8448825060585656E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -731,7 +751,7 @@
         <v>46.866666666666667</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7" si="6">MAX(ABS(E7-B7),ABS(E7-C7),ABS(E7-D7))</f>
+        <f t="shared" ref="F7" si="4">MAX(ABS(E7-B7),ABS(E7-C7),ABS(E7-D7))</f>
         <v>0.13333333333333286</v>
       </c>
       <c r="G7" s="7">
@@ -746,23 +766,23 @@
         <v>13.333333333333336</v>
       </c>
       <c r="J7" s="7">
+        <f>SQRT(H6+H7)</f>
+        <v>0.53558538925379062</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>346.66666666666674</v>
+      </c>
+      <c r="L7" s="8">
+        <f>SQRT((2*A2)*J7)</f>
+        <v>37.316511252525409</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="3"/>
-        <v>0.14907119849998704</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="4"/>
-        <v>346.66666666666674</v>
-      </c>
-      <c r="L7" s="8">
-        <f>SQRT(POWER(1/$A$2*J7,2)+POWER(I7/($A$2*$A$2)*K7,2))</f>
-        <v>2.7374455257463165E-3</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="1"/>
-        <v>133447.06570481561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.1812150281256497E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -787,7 +807,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.14142135623731053</v>
       </c>
       <c r="I8" s="7">
@@ -795,23 +815,23 @@
         <v>13.033333333333331</v>
       </c>
       <c r="J8" s="7">
+        <f>SQRT(H7+H8)</f>
+        <v>0.55505677448705804</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>338.86666666666662</v>
+      </c>
+      <c r="L8" s="8">
+        <f>SQRT((2*A2)*J8)</f>
+        <v>37.988782734727771</v>
+      </c>
+      <c r="M8" s="5">
         <f t="shared" si="3"/>
-        <v>0.16666666666666713</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
-        <v>338.86666666666662</v>
-      </c>
-      <c r="L8" s="8">
-        <f>SQRT(POWER(1/$A$2*J8,2)+POWER(I8/($A$2*$A$2)*K8,2))</f>
-        <v>2.616493266001415E-3</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="1"/>
-        <v>146069.90853083896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.9292980879445611E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -819,7 +839,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -830,7 +850,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1500</v>
       </c>
@@ -841,7 +861,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1</v>
@@ -878,7 +898,7 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -912,7 +932,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -926,11 +946,11 @@
         <v>17.7</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E17" si="7">AVERAGE(B14:D14)</f>
+        <f t="shared" ref="E14:E17" si="5">AVERAGE(B14:D14)</f>
         <v>17.633333333333336</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F17" si="8">MAX(ABS(E14-B14),ABS(E14-C14),ABS(E14-D14))</f>
+        <f t="shared" ref="F14:F17" si="6">MAX(ABS(E14-B14),ABS(E14-C14),ABS(E14-D14))</f>
         <v>0.13333333333333641</v>
       </c>
       <c r="G14" s="7">
@@ -945,23 +965,23 @@
         <v>11.133333333333336</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="3"/>
-        <v>0.16666666666666893</v>
+        <f>SQRT(H13+H14)</f>
+        <v>0.55505677448705948</v>
       </c>
       <c r="K14" s="7">
         <f>2*$A$11*I14/100</f>
         <v>334.00000000000006</v>
       </c>
       <c r="L14" s="8">
-        <f>SQRT(POWER(1/$A$11*J14,2)+POWER(I14/($A$11*$A$11)*K14,2))</f>
-        <v>1.6564123152899377E-3</v>
+        <f>SQRT((2*A11)*J14)</f>
+        <v>40.806498544486494</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="1"/>
-        <v>364471.10076568549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>6.0053916762186027E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,42 +995,42 @@
         <v>29.1</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>29.033333333333331</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333215</v>
       </c>
       <c r="G15" s="7">
         <v>0.1</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ref="H15:H16" si="9">SQRT(POWER(F15,2)+POWER(G15,2))</f>
+        <f t="shared" ref="H15:H16" si="7">SQRT(POWER(F15,2)+POWER(G15,2))</f>
         <v>0.34801021696368389</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" ref="I15:I25" si="10">E15-E14</f>
+        <f t="shared" ref="I15:I25" si="8">E15-E14</f>
         <v>11.399999999999995</v>
       </c>
       <c r="J15" s="7">
+        <f t="shared" ref="J15:J17" si="9">SQRT(H14+H15)</f>
+        <v>0.71740984355551818</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" ref="K15:K17" si="10">2*$A$11*I15/100</f>
+        <v>341.99999999999983</v>
+      </c>
+      <c r="L15" s="8">
+        <f>SQRT((2*A11)*J15)</f>
+        <v>46.392127895436687</v>
+      </c>
+      <c r="M15" s="5">
         <f t="shared" si="3"/>
-        <v>0.35901098714230034</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" ref="K15:K17" si="11">2*$A$11*I15/100</f>
-        <v>341.99999999999983</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" ref="L15:L16" si="12">SQRT(POWER(1/$A$11*J15,2)+POWER(I15/($A$11*$A$11)*K15,2))</f>
-        <v>1.7492512085510411E-3</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="1"/>
-        <v>326810.22407036042</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.6463445731566359E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1024,42 +1044,42 @@
         <v>40.700000000000003</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40.666666666666664</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.26666666666666572</v>
       </c>
       <c r="G16" s="7">
         <v>0.1</v>
       </c>
       <c r="H16" s="7">
+        <f t="shared" si="7"/>
+        <v>0.28480012484391681</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="8"/>
+        <v>11.633333333333333</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="9"/>
-        <v>0.28480012484391681</v>
-      </c>
-      <c r="I16" s="7">
+        <v>0.79549377232483776</v>
+      </c>
+      <c r="K16" s="7">
         <f t="shared" si="10"/>
-        <v>11.633333333333333</v>
-      </c>
-      <c r="J16" s="7">
+        <v>349</v>
+      </c>
+      <c r="L16" s="8">
+        <f>SQRT((2*A11)*J16)</f>
+        <v>48.851625530523684</v>
+      </c>
+      <c r="M16" s="5">
         <f t="shared" si="3"/>
-        <v>0.42687494916218843</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="11"/>
-        <v>349</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="12"/>
-        <v>1.8267624018047505E-3</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" si="1"/>
-        <v>299664.89619551023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.1902695524461948E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1073,11 +1093,11 @@
         <v>52.2</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52.20000000000001</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10000000000000853</v>
       </c>
       <c r="G17" s="7">
@@ -1092,23 +1112,23 @@
         <v>11.533333333333346</v>
       </c>
       <c r="J17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.65285640157789093</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="10"/>
+        <v>346.00000000000034</v>
+      </c>
+      <c r="L17" s="8">
+        <f>SQRT((2*A11)*J17)</f>
+        <v>44.255725106856772</v>
+      </c>
+      <c r="M17" s="5">
         <f t="shared" si="3"/>
-        <v>0.28480012484391981</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="11"/>
-        <v>346.00000000000034</v>
-      </c>
-      <c r="L17" s="8">
-        <f>SQRT(POWER(1/$A$11*J17,2)+POWER(I17/($A$11*$A$11)*K17,2))</f>
-        <v>1.7837043592960566E-3</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" si="1"/>
-        <v>314307.14415010961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.1057680146460811E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1116,7 +1136,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1147,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1800</v>
       </c>
@@ -1138,7 +1158,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1</v>
@@ -1175,7 +1195,7 @@
       </c>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1229,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1223,18 +1243,18 @@
         <v>24.2</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" ref="E23:E26" si="13">AVERAGE(B23:D23)</f>
+        <f t="shared" ref="E23:E26" si="11">AVERAGE(B23:D23)</f>
         <v>24.099999999999998</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ref="F23:F26" si="14">MAX(ABS(E23-B23),ABS(E23-C23),ABS(E23-D23))</f>
+        <f t="shared" ref="F23:F26" si="12">MAX(ABS(E23-B23),ABS(E23-C23),ABS(E23-D23))</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="G23" s="7">
         <v>0.1</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H26" si="15">SQRT(POWER(F23,2)+POWER(G23,2))</f>
+        <f t="shared" ref="H23:H26" si="13">SQRT(POWER(F23,2)+POWER(G23,2))</f>
         <v>0.14142135623731053</v>
       </c>
       <c r="I23" s="7">
@@ -1242,23 +1262,23 @@
         <v>9.3666666666666636</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="3"/>
-        <v>0.57542255005440235</v>
+        <f>SQRT(H22+H23)</f>
+        <v>0.84666634885987557</v>
       </c>
       <c r="K23" s="7">
         <f>2*$A$20*I23/100</f>
         <v>337.19999999999987</v>
       </c>
       <c r="L23" s="8">
-        <f>SQRT(POWER(1/$A$20*J23,2)+POWER(I23/($A$20*$A$20)*K23,2))</f>
-        <v>1.0259058339908342E-3</v>
+        <f>SQRT((2*A20)*J23)</f>
+        <v>55.208684605735286</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="1"/>
-        <v>950134.30984054995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.2808411265173638E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1272,18 +1292,18 @@
         <v>33.9</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>34.033333333333331</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.1666666666666714</v>
       </c>
       <c r="G24" s="7">
         <v>0.1</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0.19436506316151408</v>
       </c>
       <c r="I24" s="7">
@@ -1291,23 +1311,23 @@
         <v>9.9333333333333336</v>
       </c>
       <c r="J24" s="7">
+        <f t="shared" ref="J24:J26" si="14">SQRT(H23+H24)</f>
+        <v>0.57947080979012622</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" ref="K24:K26" si="15">2*$A$20*I24/100</f>
+        <v>357.6</v>
+      </c>
+      <c r="L24" s="8">
+        <f>SQRT((2*A20)*J24)</f>
+        <v>45.673788054467899</v>
+      </c>
+      <c r="M24" s="5">
         <f t="shared" si="3"/>
-        <v>0.19436506316151481</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" ref="K24:K26" si="16">2*$A$20*I24/100</f>
-        <v>357.6</v>
-      </c>
-      <c r="L24" s="8">
-        <f>SQRT(POWER(1/$A$20*J24,2)+POWER(I24/($A$20*$A$20)*K24,2))</f>
-        <v>1.1016504236122937E-3</v>
-      </c>
-      <c r="M24" s="5">
-        <f t="shared" si="1"/>
-        <v>823971.87584883138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.7936457382276738E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1321,42 +1341,42 @@
         <v>43.6</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>43.566666666666663</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.6666666666662877E-2</v>
       </c>
       <c r="G25" s="7">
         <v>0.1</v>
       </c>
       <c r="H25" s="7">
+        <f t="shared" si="13"/>
+        <v>0.12018504251546422</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="8"/>
+        <v>9.5333333333333314</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="14"/>
+        <v>0.5608476670870427</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="15"/>
-        <v>0.12018504251546422</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="10"/>
-        <v>9.5333333333333314</v>
-      </c>
-      <c r="J25" s="7">
+        <v>343.19999999999993</v>
+      </c>
+      <c r="L25" s="8">
+        <f>SQRT((2*A20)*J25)</f>
+        <v>44.933858075101384</v>
+      </c>
+      <c r="M25" s="5">
         <f t="shared" si="3"/>
-        <v>0.17950549357115314</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="16"/>
-        <v>343.19999999999993</v>
-      </c>
-      <c r="L25" s="8">
-        <f>SQRT(POWER(1/$A$20*J25,2)+POWER(I25/($A$20*$A$20)*K25,2))</f>
-        <v>1.0147393874224682E-3</v>
-      </c>
-      <c r="M25" s="5">
-        <f t="shared" si="1"/>
-        <v>971160.39716263034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.9528204195002396E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1370,18 +1390,18 @@
         <v>53.1</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>53.166666666666664</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.13333333333333286</v>
       </c>
       <c r="G26" s="7">
         <v>0.1</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0.1666666666666663</v>
       </c>
       <c r="I26" s="7">
@@ -1389,20 +1409,20 @@
         <v>9.6000000000000014</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="3"/>
-        <v>0.14907119849998388</v>
+        <f t="shared" si="14"/>
+        <v>0.53558538925378696</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>345.60000000000008</v>
       </c>
       <c r="L26" s="8">
-        <f>SQRT(POWER(1/$A$20*J26,2)+POWER(I26/($A$20*$A$20)*K26,2))</f>
-        <v>1.0273435212052563E-3</v>
+        <f>SQRT((2*A20)*J26)</f>
+        <v>43.910219782114879</v>
       </c>
       <c r="M26" s="5">
         <f>1/(L26*L26)</f>
-        <v>947476.89268919814</v>
+        <v>5.18643307586856E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Our_Labs/Lab_5/excel.xlsx
+++ b/Our_Labs/Lab_5/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB6A76-169D-4A05-B691-8EA3A44E63D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A44100-647E-400A-9162-1C76450392E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -514,25 +514,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,12 +543,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -635,7 +635,7 @@
         <v>37.603341020474318</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
         <v>6.2887628959391016E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -729,11 +729,11 @@
         <v>35.703170037496044</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" ref="M5:M25" si="3">1/(L6*L6)</f>
+        <f t="shared" ref="M6:M25" si="3">1/(L6*L6)</f>
         <v>7.8448825060585656E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -782,7 +782,7 @@
         <v>7.1812150281256497E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -831,7 +831,7 @@
         <v>6.9292980879445611E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -839,7 +839,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1500</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>6.0053916762186027E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>4.6463445731566359E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4.1902695524461948E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>5.1057680146460811E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1136,7 +1136,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1800</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1</v>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>3.2808411265173638E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4.7936457382276738E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>4.9528204195002396E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>

--- a/Our_Labs/Lab_5/excel.xlsx
+++ b/Our_Labs/Lab_5/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A44100-647E-400A-9162-1C76450392E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49989594-FE51-437F-8B89-04394A286592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
